--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vegfc-Vipr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vegfc-Vipr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
   </si>
   <si>
     <t>Vegfc</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.663313</v>
+        <v>2.404594333333333</v>
       </c>
       <c r="H2">
-        <v>7.989939000000001</v>
+        <v>7.213783</v>
       </c>
       <c r="I2">
-        <v>0.3794306644527502</v>
+        <v>0.3565065439253589</v>
       </c>
       <c r="J2">
-        <v>0.3794306644527503</v>
+        <v>0.3565065439253589</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.02608566666666667</v>
+        <v>0.01962266666666667</v>
       </c>
       <c r="N2">
-        <v>0.07825700000000001</v>
+        <v>0.058868</v>
       </c>
       <c r="O2">
-        <v>0.007055522672798638</v>
+        <v>0.02207703711370904</v>
       </c>
       <c r="P2">
-        <v>0.007055522672798637</v>
+        <v>0.02207703711370904</v>
       </c>
       <c r="Q2">
-        <v>0.06947429514700001</v>
+        <v>0.04718455307155556</v>
       </c>
       <c r="R2">
-        <v>0.6252686563230001</v>
+        <v>0.424660977644</v>
       </c>
       <c r="S2">
-        <v>0.002677081655801431</v>
+        <v>0.007870608201520291</v>
       </c>
       <c r="T2">
-        <v>0.002677081655801431</v>
+        <v>0.007870608201520289</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.663313</v>
+        <v>2.404594333333333</v>
       </c>
       <c r="H3">
-        <v>7.989939000000001</v>
+        <v>7.213783</v>
       </c>
       <c r="I3">
-        <v>0.3794306644527502</v>
+        <v>0.3565065439253589</v>
       </c>
       <c r="J3">
-        <v>0.3794306644527503</v>
+        <v>0.3565065439253589</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +626,22 @@
         <v>1.997513</v>
       </c>
       <c r="O3">
-        <v>0.1800924934601381</v>
+        <v>0.7491195324474467</v>
       </c>
       <c r="P3">
-        <v>0.180092493460138</v>
+        <v>0.7491195324474467</v>
       </c>
       <c r="Q3">
-        <v>1.773334113523</v>
+        <v>1.601069480186555</v>
       </c>
       <c r="R3">
-        <v>15.960007021707</v>
+        <v>14.409625321679</v>
       </c>
       <c r="S3">
-        <v>0.06833261445653276</v>
+        <v>0.26706601549982</v>
       </c>
       <c r="T3">
-        <v>0.06833261445653276</v>
+        <v>0.26706601549982</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.663313</v>
+        <v>2.404594333333333</v>
       </c>
       <c r="H4">
-        <v>7.989939000000001</v>
+        <v>7.213783</v>
       </c>
       <c r="I4">
-        <v>0.3794306644527502</v>
+        <v>0.3565065439253589</v>
       </c>
       <c r="J4">
-        <v>0.3794306644527503</v>
+        <v>0.3565065439253589</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1152503333333333</v>
+        <v>0.1131433333333333</v>
       </c>
       <c r="N4">
-        <v>0.345751</v>
+        <v>0.33943</v>
       </c>
       <c r="O4">
-        <v>0.03117234266126738</v>
+        <v>0.1272951129222372</v>
       </c>
       <c r="P4">
-        <v>0.03117234266126738</v>
+        <v>0.1272951129222372</v>
       </c>
       <c r="Q4">
-        <v>0.306947711021</v>
+        <v>0.2720638181877778</v>
       </c>
       <c r="R4">
-        <v>2.762529399189</v>
+        <v>2.44857436369</v>
       </c>
       <c r="S4">
-        <v>0.01182774268851349</v>
+        <v>0.04538154076649507</v>
       </c>
       <c r="T4">
-        <v>0.01182774268851349</v>
+        <v>0.04538154076649508</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -723,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.663313</v>
+        <v>2.404594333333333</v>
       </c>
       <c r="H5">
-        <v>7.989939000000001</v>
+        <v>7.213783</v>
       </c>
       <c r="I5">
-        <v>0.3794306644527502</v>
+        <v>0.3565065439253589</v>
       </c>
       <c r="J5">
-        <v>0.3794306644527503</v>
+        <v>0.3565065439253589</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>2.890024666666667</v>
+        <v>0.09022333333333332</v>
       </c>
       <c r="N5">
-        <v>8.670074000000001</v>
+        <v>0.27067</v>
       </c>
       <c r="O5">
-        <v>0.781679641205796</v>
+        <v>0.1015083175166071</v>
       </c>
       <c r="P5">
-        <v>0.7816796412057959</v>
+        <v>0.1015083175166071</v>
       </c>
       <c r="Q5">
-        <v>7.697040265054001</v>
+        <v>0.2169505160677777</v>
       </c>
       <c r="R5">
-        <v>69.27336238548601</v>
+        <v>1.95255464461</v>
       </c>
       <c r="S5">
-        <v>0.2965932256519025</v>
+        <v>0.03618837945752355</v>
       </c>
       <c r="T5">
-        <v>0.2965932256519025</v>
+        <v>0.03618837945752355</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +773,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -785,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.178631333333333</v>
+        <v>3.178631333333334</v>
       </c>
       <c r="H6">
-        <v>9.535893999999999</v>
+        <v>9.535894000000001</v>
       </c>
       <c r="I6">
-        <v>0.4528458348143826</v>
+        <v>0.471265716362492</v>
       </c>
       <c r="J6">
-        <v>0.4528458348143827</v>
+        <v>0.4712657163624919</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,28 +806,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.02608566666666667</v>
+        <v>0.01962266666666667</v>
       </c>
       <c r="N6">
-        <v>0.07825700000000001</v>
+        <v>0.058868</v>
       </c>
       <c r="O6">
-        <v>0.007055522672798638</v>
+        <v>0.02207703711370904</v>
       </c>
       <c r="P6">
-        <v>0.007055522672798637</v>
+        <v>0.02207703711370904</v>
       </c>
       <c r="Q6">
-        <v>0.08291671741755556</v>
+        <v>0.06237322311022223</v>
       </c>
       <c r="R6">
-        <v>0.7462504567579999</v>
+        <v>0.561359007992</v>
       </c>
       <c r="S6">
-        <v>0.003195064054815303</v>
+        <v>0.01040415071055341</v>
       </c>
       <c r="T6">
-        <v>0.003195064054815303</v>
+        <v>0.01040415071055341</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -847,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.178631333333333</v>
+        <v>3.178631333333334</v>
       </c>
       <c r="H7">
-        <v>9.535893999999999</v>
+        <v>9.535894000000001</v>
       </c>
       <c r="I7">
-        <v>0.4528458348143826</v>
+        <v>0.471265716362492</v>
       </c>
       <c r="J7">
-        <v>0.4528458348143827</v>
+        <v>0.4712657163624919</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +874,22 @@
         <v>1.997513</v>
       </c>
       <c r="O7">
-        <v>0.1800924934601381</v>
+        <v>0.7491195324474467</v>
       </c>
       <c r="P7">
-        <v>0.180092493460138</v>
+        <v>0.7491195324474467</v>
       </c>
       <c r="Q7">
-        <v>2.116452470180222</v>
+        <v>2.116452470180223</v>
       </c>
       <c r="R7">
         <v>19.048072231622</v>
       </c>
       <c r="S7">
-        <v>0.08155413554475996</v>
+        <v>0.353034353099981</v>
       </c>
       <c r="T7">
-        <v>0.08155413554475996</v>
+        <v>0.353034353099981</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,46 +912,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.178631333333333</v>
+        <v>3.178631333333334</v>
       </c>
       <c r="H8">
-        <v>9.535893999999999</v>
+        <v>9.535894000000001</v>
       </c>
       <c r="I8">
-        <v>0.4528458348143826</v>
+        <v>0.471265716362492</v>
       </c>
       <c r="J8">
-        <v>0.4528458348143827</v>
+        <v>0.4712657163624919</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.1152503333333333</v>
+        <v>0.1131433333333333</v>
       </c>
       <c r="N8">
-        <v>0.345751</v>
+        <v>0.33943</v>
       </c>
       <c r="O8">
-        <v>0.03117234266126738</v>
+        <v>0.1272951129222372</v>
       </c>
       <c r="P8">
-        <v>0.03117234266126738</v>
+        <v>0.1272951129222372</v>
       </c>
       <c r="Q8">
-        <v>0.3663383207104445</v>
+        <v>0.3596409444911111</v>
       </c>
       <c r="R8">
-        <v>3.297044886394</v>
+        <v>3.23676850042</v>
       </c>
       <c r="S8">
-        <v>0.01411626553556162</v>
+        <v>0.05998982258074242</v>
       </c>
       <c r="T8">
-        <v>0.01411626553556162</v>
+        <v>0.05998982258074242</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -971,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.178631333333333</v>
+        <v>3.178631333333334</v>
       </c>
       <c r="H9">
-        <v>9.535893999999999</v>
+        <v>9.535894000000001</v>
       </c>
       <c r="I9">
-        <v>0.4528458348143826</v>
+        <v>0.471265716362492</v>
       </c>
       <c r="J9">
-        <v>0.4528458348143827</v>
+        <v>0.4712657163624919</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>2.890024666666667</v>
+        <v>0.09022333333333332</v>
       </c>
       <c r="N9">
-        <v>8.670074000000001</v>
+        <v>0.27067</v>
       </c>
       <c r="O9">
-        <v>0.781679641205796</v>
+        <v>0.1015083175166071</v>
       </c>
       <c r="P9">
-        <v>0.7816796412057959</v>
+        <v>0.1015083175166071</v>
       </c>
       <c r="Q9">
-        <v>9.186322959572889</v>
+        <v>0.2867867143311111</v>
       </c>
       <c r="R9">
-        <v>82.676906636156</v>
+        <v>2.58108042898</v>
       </c>
       <c r="S9">
-        <v>0.3539803696792458</v>
+        <v>0.04783738997121513</v>
       </c>
       <c r="T9">
-        <v>0.3539803696792458</v>
+        <v>0.04783738997121512</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1021,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.177290666666667</v>
+        <v>1.125649</v>
       </c>
       <c r="H10">
-        <v>3.531872</v>
+        <v>3.376947</v>
       </c>
       <c r="I10">
-        <v>0.1677235007328672</v>
+        <v>0.166889370527102</v>
       </c>
       <c r="J10">
-        <v>0.1677235007328672</v>
+        <v>0.1668893705271019</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1051,28 +1054,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.02608566666666667</v>
+        <v>0.01962266666666667</v>
       </c>
       <c r="N10">
-        <v>0.07825700000000001</v>
+        <v>0.058868</v>
       </c>
       <c r="O10">
-        <v>0.007055522672798638</v>
+        <v>0.02207703711370904</v>
       </c>
       <c r="P10">
-        <v>0.007055522672798637</v>
+        <v>0.02207703711370904</v>
       </c>
       <c r="Q10">
-        <v>0.03071041190044445</v>
+        <v>0.02208823511066667</v>
       </c>
       <c r="R10">
-        <v>0.2763937071040001</v>
+        <v>0.198794115996</v>
       </c>
       <c r="S10">
-        <v>0.001183376962181903</v>
+        <v>0.00368442282701037</v>
       </c>
       <c r="T10">
-        <v>0.001183376962181903</v>
+        <v>0.003684422827010369</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1083,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.177290666666667</v>
+        <v>1.125649</v>
       </c>
       <c r="H11">
-        <v>3.531872</v>
+        <v>3.376947</v>
       </c>
       <c r="I11">
-        <v>0.1677235007328672</v>
+        <v>0.166889370527102</v>
       </c>
       <c r="J11">
-        <v>0.1677235007328672</v>
+        <v>0.1668893705271019</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1122,22 @@
         <v>1.997513</v>
       </c>
       <c r="O11">
-        <v>0.1800924934601381</v>
+        <v>0.7491195324474467</v>
       </c>
       <c r="P11">
-        <v>0.180092493460138</v>
+        <v>0.7491195324474467</v>
       </c>
       <c r="Q11">
-        <v>0.7838844704817778</v>
+        <v>0.7494995036456668</v>
       </c>
       <c r="R11">
-        <v>7.054960234336001</v>
+        <v>6.745495532811001</v>
       </c>
       <c r="S11">
-        <v>0.03020574345884534</v>
+        <v>0.1250200872197113</v>
       </c>
       <c r="T11">
-        <v>0.03020574345884533</v>
+        <v>0.1250200872197113</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,13 +1145,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.177290666666667</v>
+        <v>1.125649</v>
       </c>
       <c r="H12">
-        <v>3.531872</v>
+        <v>3.376947</v>
       </c>
       <c r="I12">
-        <v>0.1677235007328672</v>
+        <v>0.166889370527102</v>
       </c>
       <c r="J12">
-        <v>0.1677235007328672</v>
+        <v>0.1668893705271019</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.1152503333333333</v>
+        <v>0.1131433333333333</v>
       </c>
       <c r="N12">
-        <v>0.345751</v>
+        <v>0.33943</v>
       </c>
       <c r="O12">
-        <v>0.03117234266126738</v>
+        <v>0.1272951129222372</v>
       </c>
       <c r="P12">
-        <v>0.03117234266126738</v>
+        <v>0.1272951129222372</v>
       </c>
       <c r="Q12">
-        <v>0.1356831417635556</v>
+        <v>0.1273596800233333</v>
       </c>
       <c r="R12">
-        <v>1.221148275872</v>
+        <v>1.14623712021</v>
       </c>
       <c r="S12">
-        <v>0.005228334437192266</v>
+        <v>0.02124420126676853</v>
       </c>
       <c r="T12">
-        <v>0.005228334437192265</v>
+        <v>0.02124420126676853</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
@@ -1219,46 +1222,294 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.177290666666667</v>
+        <v>1.125649</v>
       </c>
       <c r="H13">
-        <v>3.531872</v>
+        <v>3.376947</v>
       </c>
       <c r="I13">
-        <v>0.1677235007328672</v>
+        <v>0.166889370527102</v>
       </c>
       <c r="J13">
-        <v>0.1677235007328672</v>
+        <v>0.1668893705271019</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>2.890024666666667</v>
+        <v>0.09022333333333332</v>
       </c>
       <c r="N13">
-        <v>8.670074000000001</v>
+        <v>0.27067</v>
       </c>
       <c r="O13">
-        <v>0.781679641205796</v>
+        <v>0.1015083175166071</v>
       </c>
       <c r="P13">
-        <v>0.7816796412057959</v>
+        <v>0.1015083175166071</v>
       </c>
       <c r="Q13">
-        <v>3.402399066503112</v>
+        <v>0.1015598049433333</v>
       </c>
       <c r="R13">
-        <v>30.62159159852801</v>
+        <v>0.9140382444899999</v>
       </c>
       <c r="S13">
-        <v>0.1311060458746477</v>
+        <v>0.01694065921361175</v>
       </c>
       <c r="T13">
-        <v>0.1311060458746476</v>
+        <v>0.01694065921361175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.03600666666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.10802</v>
+      </c>
+      <c r="I14">
+        <v>0.005338369185047189</v>
+      </c>
+      <c r="J14">
+        <v>0.005338369185047188</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.01962266666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.058868</v>
+      </c>
+      <c r="O14">
+        <v>0.02207703711370904</v>
+      </c>
+      <c r="P14">
+        <v>0.02207703711370904</v>
+      </c>
+      <c r="Q14">
+        <v>0.0007065468177777777</v>
+      </c>
+      <c r="R14">
+        <v>0.00635892136</v>
+      </c>
+      <c r="S14">
+        <v>0.0001178553746249675</v>
+      </c>
+      <c r="T14">
+        <v>0.0001178553746249675</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.03600666666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.10802</v>
+      </c>
+      <c r="I15">
+        <v>0.005338369185047189</v>
+      </c>
+      <c r="J15">
+        <v>0.005338369185047188</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.6658376666666667</v>
+      </c>
+      <c r="N15">
+        <v>1.997513</v>
+      </c>
+      <c r="O15">
+        <v>0.7491195324474467</v>
+      </c>
+      <c r="P15">
+        <v>0.7491195324474467</v>
+      </c>
+      <c r="Q15">
+        <v>0.02397459491777778</v>
+      </c>
+      <c r="R15">
+        <v>0.21577135426</v>
+      </c>
+      <c r="S15">
+        <v>0.003999076627934407</v>
+      </c>
+      <c r="T15">
+        <v>0.003999076627934407</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.03600666666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.10802</v>
+      </c>
+      <c r="I16">
+        <v>0.005338369185047189</v>
+      </c>
+      <c r="J16">
+        <v>0.005338369185047188</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.1131433333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.33943</v>
+      </c>
+      <c r="O16">
+        <v>0.1272951129222372</v>
+      </c>
+      <c r="P16">
+        <v>0.1272951129222372</v>
+      </c>
+      <c r="Q16">
+        <v>0.004073914288888889</v>
+      </c>
+      <c r="R16">
+        <v>0.0366652286</v>
+      </c>
+      <c r="S16">
+        <v>0.0006795483082311733</v>
+      </c>
+      <c r="T16">
+        <v>0.0006795483082311733</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.03600666666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.10802</v>
+      </c>
+      <c r="I17">
+        <v>0.005338369185047189</v>
+      </c>
+      <c r="J17">
+        <v>0.005338369185047188</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.09022333333333332</v>
+      </c>
+      <c r="N17">
+        <v>0.27067</v>
+      </c>
+      <c r="O17">
+        <v>0.1015083175166071</v>
+      </c>
+      <c r="P17">
+        <v>0.1015083175166071</v>
+      </c>
+      <c r="Q17">
+        <v>0.003248641488888889</v>
+      </c>
+      <c r="R17">
+        <v>0.0292377734</v>
+      </c>
+      <c r="S17">
+        <v>0.0005418888742566411</v>
+      </c>
+      <c r="T17">
+        <v>0.000541888874256641</v>
       </c>
     </row>
   </sheetData>
